--- a/BackTest/2020-01-20 BackTest MTL.xlsx
+++ b/BackTest/2020-01-20 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-193484.1845999999</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-193484.1845999999</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-195310.9936</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-197530.2405</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-208391.3492999999</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-208598.7163999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-206598.7163999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-235333.1168</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-233193.2177</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-234095.8551</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-234100.7438999999</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-234100.7438999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-239745.4179999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-222809.9624</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-241106.273</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-239254.5568</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-251242.2475</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-249545.8475</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-249551.3302</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-249466.179</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-246133.1882</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-246139.2867</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-246139.2867</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-238928.90236699</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-238916.96796699</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-239516.96796699</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-239487.63006699</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-240984.7562669899</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-242336.9031669899</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-242325.9031669899</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-243091.4077669899</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-240015.3492669899</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-240004.5544669899</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-238711.9770669899</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-238711.9770669899</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-238085.5749669899</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-238935.0235669899</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-238935.0235669899</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-238818.3236669899</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-238818.3236669899</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-222719.9893442499</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-223055.0492442499</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-222404.1471442499</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-223001.8709442499</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-222990.8709442499</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-223222.1446442499</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-223222.1446442499</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-226788.6043442499</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-226788.6043442499</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-225968.9925442499</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-225978.5621442499</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-233770.3449442499</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-233770.3449442499</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-227865.2942442499</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-228681.6430442499</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-228658.7717442499</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-228636.7717442499</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-228651.7164442499</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-221645.8145442499</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-222778.8673121299</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-224130.5673121299</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-223749.6198121299</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-223929.9198121299</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-246360.8912121299</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-246358.8912121299</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-246360.8912121299</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-251460.5814121299</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-251458.5814121299</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-251603.5813121299</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-252142.5813121299</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-252142.5813121299</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-252140.5813121299</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-255369.3041121299</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-240336.5306121299</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-244230.3868121299</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-244224.9173121299</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-283530.7248121299</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-296923.2424121299</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-296936.5734121299</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-305281.6689121299</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-307222.3533121299</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-308781.7484121299</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-310621.7484121299</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-310621.7484121299</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-310621.7484121299</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-309281.5949121299</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-309281.5949121299</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-309278.5949121299</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-309278.5949121299</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-309278.5949121299</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-309278.5949121299</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-334335.9015121299</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-334333.9015121299</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-333323.1946121299</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-333485.11401213</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-332985.11401213</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-333032.11401213</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-339910.26711213</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-344910.26711213</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-344866.26711213</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-344911.26711213</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-344898.07781213</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-344910.71411213</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-344910.71411213</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-335979.53461213</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-336827.87781213</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-336274.87781213</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-336271.87781213</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-336373.53611213</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-336373.53611213</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-336501.22671213</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-335405.0735121299</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-335405.0735121299</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-335405.0735121299</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-338597.7735121299</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-338724.4600121299</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-335351.3114121299</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-335351.3114121299</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-346751.5858121299</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-348766.1304121299</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-456252.7967121299</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-456249.7967121299</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-451380.6041121299</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-703577.8000121301</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-708405.5511121301</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-672177.33731213</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-672177.33731213</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-672177.33731213</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-656699.92795635</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-656699.92795635</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-656668.51795635</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-657112.94735635</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-654692.08985635</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-654692.08985635</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-654692.08985635</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-654702.08985635</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-652092.26005635</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-626867.18885635</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-612721.6689563501</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-614528.2895563501</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-676663.2337563502</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-689666.2185563502</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-693881.1878563502</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-683398.7247563503</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-720223.1223563503</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-730801.3812563503</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-730029.1258563503</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-730029.1258563503</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-615855.8496272507</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-615853.8496272507</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-618271.0961272507</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-618258.7529272507</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-750291.4415869405</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-747129.0886869405</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-771989.6743869405</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-761917.7186869405</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-761917.7186869405</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-801323.6896056305</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-864919.1311056304</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-909358.3039056305</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-905358.6330056305</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-910445.0883558205</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-906566.2976558205</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-906566.2976558205</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-905317.5475558206</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-897685.3916558205</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-920718.5320558206</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-923731.7971558205</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-934097.4096558206</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-927041.5219558206</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-919337.3035558206</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-925995.0973558206</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-927705.0973558206</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-927705.0973558206</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-927708.9124558206</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-942107.8341558205</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-957873.4789558206</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-976571.6336558205</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-993744.8138558205</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-993744.8138558205</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-989712.5147558205</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-989737.0727558205</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-948176.5936558205</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23452,11 +23452,17 @@
         <v>-1034585.086857561</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>279</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23489,7 +23495,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23522,7 +23532,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23555,7 +23569,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23588,7 +23606,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23621,7 +23643,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23654,7 +23680,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23687,7 +23717,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23720,7 +23754,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23753,7 +23791,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23786,7 +23828,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23819,7 +23865,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23852,7 +23902,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +23939,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23918,7 +23976,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +24013,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23984,7 +24050,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24017,7 +24087,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24050,7 +24124,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +24161,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24198,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24149,7 +24235,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24182,7 +24272,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24215,7 +24309,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +24346,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +24383,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +24420,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +24457,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +24494,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24413,7 +24531,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24446,7 +24568,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24479,7 +24605,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24512,7 +24642,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24545,7 +24679,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24578,7 +24716,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24611,7 +24753,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24644,7 +24790,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24677,7 +24827,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24710,7 +24864,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24743,7 +24901,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24772,11 +24934,17 @@
         <v>-1072919.29118364</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>278</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24805,11 +24973,17 @@
         <v>-1084236.462583641</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>278.8</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24838,11 +25012,17 @@
         <v>-1088115.775383641</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>276.7</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24871,11 +25051,17 @@
         <v>-1088115.775383641</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>275.7</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24904,11 +25090,17 @@
         <v>-1088115.775383641</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>275.7</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24937,11 +25129,17 @@
         <v>-1084844.581383641</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>275.7</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24970,11 +25168,17 @@
         <v>-1087909.555783641</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>276.6</v>
+      </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25003,7 +25207,7 @@
         <v>-1091907.367283641</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I746" t="n">
         <v>275.7</v>
@@ -25011,7 +25215,7 @@
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L746" t="n">
@@ -25042,7 +25246,7 @@
         <v>-1091907.367283641</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>275.5</v>
@@ -25081,7 +25285,7 @@
         <v>-1091893.367283641</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I748" t="n">
         <v>275.5</v>
@@ -25120,7 +25324,7 @@
         <v>-1088505.066783641</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I749" t="n">
         <v>276.7</v>
@@ -25159,7 +25363,7 @@
         <v>-1084960.857563701</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I750" t="n">
         <v>276.9</v>
@@ -25198,7 +25402,7 @@
         <v>-1085588.657563701</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I751" t="n">
         <v>277.8</v>
@@ -25237,7 +25441,7 @@
         <v>-1084565.696663701</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>276.9</v>
@@ -25276,7 +25480,7 @@
         <v>-1076361.330063701</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>277</v>
@@ -25315,7 +25519,7 @@
         <v>-1076503.842363701</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I754" t="n">
         <v>277.8</v>
@@ -25354,7 +25558,7 @@
         <v>-1076499.873763701</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>277</v>
@@ -25393,7 +25597,7 @@
         <v>-1076499.873763701</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I756" t="n">
         <v>277.8</v>
@@ -25432,7 +25636,7 @@
         <v>-1076499.873763701</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>277.8</v>
@@ -25471,7 +25675,7 @@
         <v>-1071944.373363701</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>277.8</v>
@@ -25510,7 +25714,7 @@
         <v>-1053942.944017941</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>277.9</v>
@@ -25549,7 +25753,7 @@
         <v>-1053827.651817941</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>278</v>
@@ -25588,7 +25792,7 @@
         <v>-1055385.324517941</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>278.9</v>
@@ -25627,9 +25831,11 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>278</v>
+      </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -25664,9 +25870,11 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>278.9</v>
+      </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -25701,9 +25909,11 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>278.9</v>
+      </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -25738,9 +25948,11 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>278.9</v>
+      </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -25775,9 +25987,11 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>278.9</v>
+      </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -25812,9 +26026,11 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>279.9</v>
+      </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -25849,9 +26065,11 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>279.9</v>
+      </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -25997,9 +26215,11 @@
         <v>-1055801.684517941</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>279</v>
+      </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -26160,6 +26380,6 @@
       <c r="M776" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest MTL.xlsx
+++ b/BackTest/2020-01-20 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-195310.9936</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-197530.2405</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-208391.3492999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-208598.7163999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-206598.7163999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-235333.1168</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-233193.2177</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-234095.8551</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-234100.7438999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-234100.7438999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-239745.4179999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-222809.9624</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-241106.273</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-239254.5568</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-251242.2475</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-249545.8475</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-249551.3302</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-249466.179</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-246133.1882</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-246139.2867</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-246139.2867</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-238928.90236699</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-238916.96796699</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-239516.96796699</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-239487.63006699</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-240984.7562669899</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-242336.9031669899</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-242325.9031669899</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-243091.4077669899</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-240004.5544669899</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-238711.9770669899</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-238711.9770669899</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-238085.5749669899</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-238935.0235669899</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-238935.0235669899</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-238818.3236669899</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-238818.3236669899</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-222719.9893442499</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-223055.0492442499</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-222404.1471442499</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-223001.8709442499</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-222990.8709442499</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-223222.1446442499</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-223222.1446442499</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-226788.6043442499</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-226788.6043442499</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-225968.9925442499</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-225978.5621442499</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-233770.3449442499</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-233770.3449442499</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-227865.2942442499</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-228681.6430442499</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-228658.7717442499</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-228636.7717442499</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-228651.7164442499</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-221645.8145442499</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-222778.8673121299</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-224130.5673121299</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-223749.6198121299</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-223929.9198121299</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-246360.8912121299</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-246358.8912121299</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-246360.8912121299</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-251460.5814121299</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-251458.5814121299</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-251603.5813121299</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-252142.5813121299</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-252142.5813121299</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-252140.5813121299</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-255369.3041121299</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-240336.5306121299</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-244230.3868121299</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-244224.9173121299</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-283530.7248121299</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-296923.2424121299</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-296936.5734121299</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-305281.6689121299</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-307222.3533121299</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-308781.7484121299</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-310621.7484121299</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-310621.7484121299</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-310621.7484121299</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-309281.5949121299</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-309281.5949121299</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-309278.5949121299</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-309278.5949121299</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-613943.2895563501</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-613941.48955635</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-614528.2895563501</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-614530.0895563501</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-619914.2095563501</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-619914.2095563501</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-619294.0968563501</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-619294.0968563501</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-618923.09695635</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-659444.16055635</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-658952.08995635</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-658952.08995635</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-658803.2218563501</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-647631.5486563501</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-647631.5486563501</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-654872.5117563502</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-654872.5117563502</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-677544.7722563501</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-677503.3325563502</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-677901.0898563502</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-676663.2337563502</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-676643.2337563502</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-676643.2337563502</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-689666.2185563502</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-689666.2185563502</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-693881.1878563502</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-693881.1878563502</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-694009.0525563502</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-694009.0525563502</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-694007.3525563503</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-693465.6008563503</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-693925.6008563503</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-683926.4164563502</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-683062.8941563503</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-683398.7247563503</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-680439.8931563502</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-686689.1313563503</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-686709.1313563503</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-686709.1313563503</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-687693.9885563502</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-687591.5252563503</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-720654.4704563502</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-720654.4704563502</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-728055.6666563503</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-726899.1994563503</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-720223.1223563503</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-720492.3157563503</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-718306.1579563502</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-728394.1901563503</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-727021.4707563503</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-742789.7414750704</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-742789.7414750704</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-747105.7367750703</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-757784.4856246203</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-740672.6705579504</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-748495.6353002103</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-748495.6353002103</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-749952.4492002103</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-750928.0870002103</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-750928.0870002103</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-764515.8085002103</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-766156.4443002103</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-765662.9752002103</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-765662.9752002103</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-765194.6526002104</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-763694.6526002104</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-769194.6526002104</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-769369.1723002103</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-769369.1723002103</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-765647.1869002103</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-765762.3468002103</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-765088.6734847603</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-765461.2055847603</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-765461.2055847603</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-765459.5055847603</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-765471.5055847603</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-765471.5055847603</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-767940.1055847603</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-775633.7429847603</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-775633.7429847603</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-774760.2719847603</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-770849.1595847603</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-774006.1594847604</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-760043.6022080205</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-759070.3363080205</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-759281.7797080205</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-752417.4883140605</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-797752.3398140606</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-797793.0829140606</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-797793.0829140606</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-797795.0829140606</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-796094.2911140606</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-796410.3206140605</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-794858.2659608704</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-794858.2659608704</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-794852.2659608704</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-794852.2659608704</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-793774.1659608705</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-793774.1659608705</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-618041.1730272507</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-587399.3495272507</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-615853.8496272507</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -23452,17 +23452,11 @@
         <v>-1034585.086857561</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23495,11 +23489,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23532,11 +23522,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23569,11 +23555,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23606,11 +23588,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23643,11 +23621,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23680,11 +23654,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23717,11 +23687,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23754,11 +23720,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23791,11 +23753,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23828,11 +23786,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23865,11 +23819,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23902,11 +23852,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23939,11 +23885,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23976,11 +23918,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24013,11 +23951,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24050,11 +23984,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24087,11 +24017,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24124,11 +24050,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24161,11 +24083,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24198,11 +24116,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24235,11 +24149,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24272,11 +24182,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24309,11 +24215,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24346,11 +24248,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24383,11 +24281,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24420,11 +24314,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24457,11 +24347,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24494,11 +24380,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24531,11 +24413,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24568,11 +24446,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24605,11 +24479,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24642,11 +24512,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24679,11 +24545,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24716,11 +24578,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24753,11 +24611,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24790,11 +24644,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24827,11 +24677,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24864,11 +24710,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24901,11 +24743,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24934,17 +24772,11 @@
         <v>-1072919.29118364</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24973,17 +24805,11 @@
         <v>-1084236.462583641</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>278.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25020,7 +24846,7 @@
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L741" t="n">
@@ -26104,9 +25930,11 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>279.9</v>
+      </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26254,9 +26082,11 @@
         <v>-1055801.684517941</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>279.9</v>
+      </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -26380,6 +26210,6 @@
       <c r="M776" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest MTL.xlsx
+++ b/BackTest/2020-01-20 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>-193484.1845999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-193484.1845999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-193484.1845999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-192136.1725</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-195310.9936</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-197530.2405</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-208391.3492999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-208598.7163999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-206598.7163999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-235333.1168</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-233193.2177</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-234095.8551</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-234100.7438999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-234100.7438999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-239745.4179999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-222809.9624</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-241106.273</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-239254.5568</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-251242.2475</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-249545.8475</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-249551.3302</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-249466.179</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-246133.1882</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-246139.2867</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-246139.2867</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-238928.90236699</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-238916.96796699</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-239516.96796699</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-239487.63006699</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-240984.7562669899</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-242336.9031669899</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-242325.9031669899</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-242325.9031669899</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-243091.4077669899</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-240015.3492669899</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-240004.5544669899</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-238711.9770669899</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-238711.9770669899</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-238085.5749669899</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-238935.0235669899</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-238935.0235669899</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-238818.3236669899</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-238818.3236669899</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-222719.9893442499</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-223055.0492442499</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-222404.1471442499</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-223001.8709442499</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-222990.8709442499</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-223222.1446442499</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-223222.1446442499</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-226788.6043442499</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-226788.6043442499</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-225968.9925442499</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-225978.5621442499</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-233770.3449442499</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-233770.3449442499</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-227865.2942442499</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-228681.6430442499</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-228658.7717442499</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-228636.7717442499</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-228651.7164442499</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-221645.8145442499</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-222778.8673121299</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-224130.5673121299</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-223749.6198121299</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-223929.9198121299</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-246360.8912121299</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-246358.8912121299</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-246360.8912121299</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-251460.5814121299</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-251458.5814121299</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-251603.5813121299</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-252142.5813121299</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-252142.5813121299</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-255369.3041121299</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-240336.5306121299</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-244230.3868121299</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-244224.9173121299</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-344911.26711213</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-335979.53461213</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-336827.87781213</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-336274.87781213</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-336373.53611213</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-335351.3114121299</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-613943.2895563501</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-613941.48955635</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-614528.2895563501</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-614530.0895563501</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-619914.2095563501</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-619914.2095563501</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-619294.0968563501</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-619294.0968563501</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-618923.09695635</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-659444.16055635</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-658952.08995635</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-658952.08995635</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-658803.2218563501</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-647631.5486563501</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-647631.5486563501</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-654872.5117563502</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-654872.5117563502</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-677544.7722563501</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-677503.3325563502</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-677901.0898563502</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-676663.2337563502</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-676643.2337563502</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-676643.2337563502</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-689666.2185563502</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-689666.2185563502</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-693881.1878563502</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-693881.1878563502</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-694009.0525563502</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-694009.0525563502</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-694007.3525563503</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-693465.6008563503</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-693925.6008563503</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-683926.4164563502</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-683062.8941563503</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-683398.7247563503</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-680439.8931563502</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-686689.1313563503</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-686709.1313563503</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-686709.1313563503</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-687693.9885563502</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-687591.5252563503</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-720654.4704563502</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-720654.4704563502</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-728055.6666563503</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-726899.1994563503</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-720223.1223563503</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-720492.3157563503</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-718306.1579563502</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-728394.1901563503</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-727021.4707563503</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-742789.7414750704</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-742789.7414750704</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-747105.7367750703</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-757784.4856246203</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-740672.6705579504</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-748495.6353002103</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-748495.6353002103</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-749952.4492002103</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-750928.0870002103</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-750928.0870002103</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-764515.8085002103</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-766156.4443002103</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-765662.9752002103</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-765662.9752002103</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-765194.6526002104</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-763694.6526002104</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-769194.6526002104</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-769369.1723002103</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-769369.1723002103</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-765647.1869002103</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-765762.3468002103</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-765088.6734847603</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-765461.2055847603</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-765461.2055847603</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-765459.5055847603</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-765471.5055847603</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-765471.5055847603</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-767940.1055847603</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-775633.7429847603</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-775633.7429847603</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-774760.2719847603</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-770849.1595847603</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-774006.1594847604</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-760043.6022080205</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-759070.3363080205</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-759281.7797080205</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-752417.4883140605</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-797752.3398140606</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-797793.0829140606</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-797793.0829140606</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-797795.0829140606</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-796094.2911140606</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-796410.3206140605</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-794858.2659608704</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-794858.2659608704</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-794852.2659608704</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-794852.2659608704</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-793774.1659608705</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-793774.1659608705</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-618041.1730272507</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-587399.3495272507</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-615853.8496272507</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -24838,17 +24838,11 @@
         <v>-1088115.775383641</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>276.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24885,7 +24879,7 @@
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L742" t="n">
@@ -25657,11 +25651,9 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -25696,11 +25688,9 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>278.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -25735,11 +25725,9 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>278.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -25774,11 +25762,9 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>278.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -25813,11 +25799,9 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>278.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -25852,11 +25836,9 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>279.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -25891,11 +25873,9 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>279.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -25930,11 +25910,9 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>279.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26043,11 +26021,9 @@
         <v>-1055801.684517941</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -26082,11 +26058,9 @@
         <v>-1055801.684517941</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>279.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
